--- a/RASTA/Riassunto risultati nostri-POI.xlsx
+++ b/RASTA/Riassunto risultati nostri-POI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\PROJECTS\PROJECTS\RASTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F2D36-A29D-4F3B-A573-B8EF1FFAE5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A48723-B11E-4E4E-9B13-6A4DE527574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7830B794-500C-46F1-B31C-217C0727780C}"/>
+    <workbookView xWindow="10248" yWindow="2160" windowWidth="10428" windowHeight="10080" xr2:uid="{7830B794-500C-46F1-B31C-217C0727780C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -162,74 +162,6 @@
   </si>
   <si>
     <t>Preprocessing CTM</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generato un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vocabolario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2755</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>costruire</t>
@@ -1202,6 +1134,74 @@
   </si>
   <si>
     <t>ribassato</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generato un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vocabolario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67033</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1877,7 +1877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1932,279 +1932,277 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2541,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF356A9-D21B-48BE-87E1-17D4C4C30CD0}">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="V56" sqref="V56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2554,99 +2552,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="A3" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="123" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
       <c r="J3" s="16"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="A4" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
     </row>
     <row r="7" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
     </row>
     <row r="8" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
     </row>
     <row r="9" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
@@ -2654,55 +2652,55 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="96"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="96"/>
+      <c r="B12" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="103"/>
     </row>
     <row r="13" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="98"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6">
@@ -2735,12 +2733,12 @@
       <c r="Q14" s="6">
         <v>9</v>
       </c>
-      <c r="R14" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
+      <c r="R14" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
       <c r="X14" s="8">
@@ -2776,22 +2774,22 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="54" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="55"/>
+      <c r="G15" s="128"/>
       <c r="H15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>11</v>
@@ -2803,42 +2801,42 @@
         <v>3</v>
       </c>
       <c r="N15" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="22" t="s">
         <v>9</v>
       </c>
       <c r="P15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="62" t="s">
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="W15" s="63"/>
+      <c r="W15" s="107"/>
       <c r="X15" s="27" t="s">
         <v>5</v>
       </c>
       <c r="Y15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="AC15" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD15" s="27" t="s">
         <v>11</v>
@@ -2855,25 +2853,25 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="56" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="57"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>11</v>
@@ -2885,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P16" s="21" t="s">
         <v>37</v>
@@ -2893,22 +2891,22 @@
       <c r="Q16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="47" t="s">
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="W16" s="48"/>
+      <c r="W16" s="109"/>
       <c r="X16" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y16" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA16" s="29" t="s">
         <v>9</v>
@@ -2917,92 +2915,92 @@
         <v>29</v>
       </c>
       <c r="AC16" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD16" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE16" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF16" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AG16" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="56" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="57"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M17" s="21" t="s">
         <v>5</v>
       </c>
       <c r="N17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="P17" s="21" t="s">
         <v>58</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>59</v>
       </c>
       <c r="Q17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="47" t="s">
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="W17" s="48"/>
+      <c r="W17" s="109"/>
       <c r="X17" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AB17" s="29" t="s">
-        <v>64</v>
-      </c>
       <c r="AC17" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD17" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE17" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF17" s="29" t="s">
         <v>6</v>
@@ -3013,157 +3011,157 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="56" t="s">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="57"/>
+      <c r="G18" s="130"/>
       <c r="H18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="J18" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="Q18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="47" t="s">
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="48"/>
+      <c r="W18" s="109"/>
       <c r="X18" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Y18" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z18" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA18" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AB18" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="29" t="s">
         <v>3</v>
       </c>
       <c r="AD18" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE18" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF18" s="29" t="s">
         <v>5</v>
       </c>
       <c r="AG18" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="58" t="s">
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="132"/>
       <c r="H19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="25" t="s">
+      <c r="M19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="L19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>55</v>
-      </c>
       <c r="N19" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="25" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="47" t="s">
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="48"/>
+      <c r="W19" s="109"/>
       <c r="X19" s="29" t="s">
         <v>11</v>
       </c>
       <c r="Y19" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z19" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC19" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD19" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="AF19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AG19" s="30" t="s">
         <v>5</v>
@@ -3171,12 +3169,12 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3187,53 +3185,53 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="47" t="s">
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="W20" s="48"/>
+      <c r="W20" s="109"/>
       <c r="X20" s="29" t="s">
         <v>9</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA20" s="29" t="s">
         <v>5</v>
       </c>
       <c r="AB20" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC20" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AD20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AE20" s="29" t="s">
+      <c r="AF20" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG20" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="AF20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG20" s="30" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3244,53 +3242,53 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="47" t="s">
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="48"/>
+      <c r="W21" s="109"/>
       <c r="X21" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="Z21" s="29" t="s">
+      <c r="AA21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AB21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC21" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AB21" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC21" s="29" t="s">
+      <c r="AD21" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AD21" s="29" t="s">
-        <v>80</v>
-      </c>
       <c r="AE21" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF21" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AG21" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3301,53 +3299,53 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="47" t="s">
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="48"/>
+      <c r="W22" s="109"/>
       <c r="X22" s="29" t="s">
         <v>31</v>
       </c>
       <c r="Y22" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z22" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA22" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB22" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC22" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD22" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE22" s="29" t="s">
         <v>5</v>
       </c>
       <c r="AF22" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG22" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -3358,16 +3356,16 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="47" t="s">
+      <c r="R23" s="126"/>
+      <c r="S23" s="126"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
+      <c r="V23" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="W23" s="48"/>
+      <c r="W23" s="109"/>
       <c r="X23" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y23" s="29" t="s">
         <v>11</v>
@@ -3379,22 +3377,22 @@
         <v>35</v>
       </c>
       <c r="AB23" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC23" s="29" t="s">
         <v>30</v>
       </c>
       <c r="AD23" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE23" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF23" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG23" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -3418,39 +3416,39 @@
       <c r="S24" s="31"/>
       <c r="T24" s="31"/>
       <c r="U24" s="31"/>
-      <c r="V24" s="47" t="s">
+      <c r="V24" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="W24" s="48"/>
+      <c r="W24" s="109"/>
       <c r="X24" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y24" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z24" s="29" t="s">
         <v>5</v>
       </c>
       <c r="AA24" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB24" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AC24" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD24" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG24" s="30" t="s">
         <v>83</v>
-      </c>
-      <c r="AE24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG24" s="30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -3474,46 +3472,46 @@
       <c r="S25" s="31"/>
       <c r="T25" s="31"/>
       <c r="U25" s="31"/>
-      <c r="V25" s="47" t="s">
+      <c r="V25" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="W25" s="48"/>
+      <c r="W25" s="109"/>
       <c r="X25" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y25" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z25" s="29" t="s">
         <v>5</v>
       </c>
       <c r="AA25" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB25" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AD25" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF25" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG25" s="30" t="s">
         <v>56</v>
-      </c>
-      <c r="AF25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG25" s="30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3530,33 +3528,33 @@
       <c r="S26" s="31"/>
       <c r="T26" s="31"/>
       <c r="U26" s="31"/>
-      <c r="V26" s="47" t="s">
+      <c r="V26" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="48"/>
+      <c r="W26" s="109"/>
       <c r="X26" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y26" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="AA26" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC26" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="AE26" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF26" s="29" t="s">
         <v>31</v>
@@ -3566,10 +3564,10 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3586,75 +3584,75 @@
       <c r="S27" s="31"/>
       <c r="T27" s="31"/>
       <c r="U27" s="31"/>
-      <c r="V27" s="49" t="s">
+      <c r="V27" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="W27" s="50"/>
+      <c r="W27" s="113"/>
       <c r="X27" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y27" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z27" s="32" t="s">
         <v>5</v>
       </c>
       <c r="AA27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC27" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD27" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="AB27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC27" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD27" s="32" t="s">
-        <v>87</v>
-      </c>
       <c r="AE27" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF27" s="32" t="s">
         <v>33</v>
       </c>
       <c r="AG27" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
+      <c r="V28" s="122"/>
+      <c r="W28" s="122"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B29" s="40"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
       <c r="H29" s="13"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
+      <c r="V29" s="122"/>
+      <c r="W29" s="122"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="81" t="s">
+      <c r="B30" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="111"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
@@ -3667,23 +3665,23 @@
       <c r="AG30" s="18"/>
     </row>
     <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="71"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
     </row>
     <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
+      <c r="B32" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15">
@@ -3716,14 +3714,14 @@
       <c r="Q32" s="15">
         <v>9</v>
       </c>
-      <c r="R32" s="110" t="s">
-        <v>146</v>
-      </c>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="45"/>
+      <c r="R32" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
+      <c r="V32" s="110"/>
+      <c r="W32" s="111"/>
       <c r="X32" s="19">
         <v>0</v>
       </c>
@@ -3756,558 +3754,558 @@
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115" t="s">
+      <c r="G33" s="67"/>
+      <c r="H33" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="116" t="s">
+      <c r="I33" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="116" t="s">
+      <c r="K33" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K33" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="116" t="s">
+      <c r="M33" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="M33" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="N33" s="116" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="116" t="s">
+      <c r="P33" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="P33" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q33" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="R33" s="110"/>
-      <c r="S33" s="110"/>
-      <c r="T33" s="110"/>
-      <c r="U33" s="110"/>
-      <c r="V33" s="46" t="s">
+      <c r="Q33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="W33" s="126"/>
-      <c r="X33" s="128" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y33" s="129" t="s">
+      <c r="W33" s="56"/>
+      <c r="X33" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y33" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Z33" s="129" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA33" s="129" t="s">
+      <c r="Z33" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="AB33" s="129" t="s">
+      <c r="AA33" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB33" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC33" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="AC33" s="129" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD33" s="129" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE33" s="129" t="s">
+      <c r="AF33" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="AF33" s="129" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG33" s="130" t="s">
-        <v>155</v>
+      <c r="AG33" s="44" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="114"/>
-      <c r="H34" s="118" t="s">
+      <c r="G34" s="67"/>
+      <c r="H34" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I34" s="119" t="s">
+      <c r="J34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="119" t="s">
+      <c r="K34" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="K34" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="119" t="s">
+      <c r="M34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="M34" s="119" t="s">
+      <c r="N34" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="N34" s="119" t="s">
+      <c r="O34" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="O34" s="119" t="s">
+      <c r="P34" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="P34" s="119" t="s">
+      <c r="Q34" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="Q34" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="46" t="s">
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="W34" s="126"/>
-      <c r="X34" s="131" t="s">
+      <c r="W34" s="56"/>
+      <c r="X34" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y34" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="Y34" s="132" t="s">
+      <c r="Z34" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="Z34" s="132" t="s">
+      <c r="AA34" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="AA34" s="132" t="s">
+      <c r="AB34" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="AB34" s="132" t="s">
+      <c r="AC34" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="AC34" s="132" t="s">
+      <c r="AD34" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="AD34" s="132" t="s">
+      <c r="AE34" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="AE34" s="132" t="s">
+      <c r="AF34" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="AF34" s="132" t="s">
+      <c r="AG34" s="46" t="s">
         <v>167</v>
-      </c>
-      <c r="AG34" s="133" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="114"/>
-      <c r="H35" s="118" t="s">
+      <c r="G35" s="67"/>
+      <c r="H35" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I35" s="119" t="s">
+      <c r="J35" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="119" t="s">
+      <c r="K35" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="119" t="s">
+      <c r="L35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="L35" s="119" t="s">
+      <c r="M35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M35" s="119" t="s">
+      <c r="N35" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="N35" s="119" t="s">
+      <c r="O35" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="O35" s="119" t="s">
+      <c r="P35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="P35" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="46" t="s">
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="W35" s="126"/>
-      <c r="X35" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y35" s="132" t="s">
+      <c r="W35" s="56"/>
+      <c r="X35" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z35" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA35" s="132" t="s">
+      <c r="Z35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AB35" s="132" t="s">
+      <c r="AA35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB35" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AC35" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD35" s="132" t="s">
+      <c r="AC35" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE35" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="AE35" s="132" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF35" s="132" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG35" s="133" t="s">
-        <v>149</v>
+      <c r="AF35" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG35" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="107"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="108" t="s">
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="114"/>
-      <c r="H36" s="118" t="s">
+      <c r="G36" s="67"/>
+      <c r="H36" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I36" s="119" t="s">
+      <c r="J36" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="119" t="s">
+      <c r="K36" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="K36" s="119" t="s">
+      <c r="L36" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="119" t="s">
+      <c r="M36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="N36" s="119" t="s">
+      <c r="O36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="O36" s="119" t="s">
+      <c r="P36" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="P36" s="119" t="s">
+      <c r="Q36" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="Q36" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="46" t="s">
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="W36" s="126"/>
-      <c r="X36" s="131" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y36" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z36" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA36" s="132" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB36" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC36" s="132" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD36" s="132" t="s">
+      <c r="W36" s="56"/>
+      <c r="X36" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y36" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z36" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA36" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB36" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC36" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD36" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE36" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF36" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="AE36" s="132" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF36" s="132" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG36" s="133" t="s">
-        <v>151</v>
+      <c r="AG36" s="46" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="108" t="s">
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="114"/>
-      <c r="H37" s="118" t="s">
+      <c r="G37" s="67"/>
+      <c r="H37" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I37" s="119" t="s">
+      <c r="J37" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J37" s="119" t="s">
+      <c r="K37" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="119" t="s">
+      <c r="L37" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="L37" s="119" t="s">
+      <c r="M37" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="M37" s="119" t="s">
+      <c r="N37" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="N37" s="119" t="s">
+      <c r="O37" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="O37" s="119" t="s">
+      <c r="P37" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="P37" s="119" t="s">
+      <c r="Q37" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="Q37" s="120" t="s">
-        <v>135</v>
-      </c>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="46" t="s">
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="W37" s="126"/>
-      <c r="X37" s="131" t="s">
+      <c r="W37" s="56"/>
+      <c r="X37" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y37" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Y37" s="132" t="s">
+      <c r="Z37" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="Z37" s="132" t="s">
+      <c r="AA37" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="AA37" s="132" t="s">
+      <c r="AB37" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="AB37" s="132" t="s">
+      <c r="AC37" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="AC37" s="132" t="s">
+      <c r="AD37" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="AD37" s="132" t="s">
+      <c r="AE37" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AE37" s="132" t="s">
+      <c r="AF37" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AF37" s="132" t="s">
+      <c r="AG37" s="46" t="s">
         <v>181</v>
-      </c>
-      <c r="AG37" s="133" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108" t="s">
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="114"/>
-      <c r="H38" s="118" t="s">
+      <c r="G38" s="67"/>
+      <c r="H38" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I38" s="119" t="s">
+      <c r="J38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="119" t="s">
+      <c r="K38" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K38" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" s="119" t="s">
+      <c r="M38" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="M38" s="119" t="s">
+      <c r="N38" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="N38" s="119" t="s">
+      <c r="O38" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P38" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="O38" s="119" t="s">
+      <c r="Q38" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="56"/>
+      <c r="X38" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="P38" s="119" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q38" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="110"/>
-      <c r="U38" s="110"/>
-      <c r="V38" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="W38" s="126"/>
-      <c r="X38" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y38" s="132" t="s">
+      <c r="Y38" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z38" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA38" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="Z38" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA38" s="132" t="s">
+      <c r="AB38" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="AB38" s="132" t="s">
+      <c r="AC38" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AC38" s="132" t="s">
+      <c r="AD38" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AD38" s="132" t="s">
+      <c r="AE38" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="AE38" s="132" t="s">
+      <c r="AF38" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="AF38" s="132" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG38" s="133" t="s">
-        <v>108</v>
+      <c r="AG38" s="46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="108" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="114"/>
-      <c r="H39" s="121" t="s">
+      <c r="G39" s="67"/>
+      <c r="H39" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="122" t="s">
+      <c r="I39" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="122" t="s">
+      <c r="J39" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="K39" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="L39" s="122" t="s">
+      <c r="L39" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M39" s="122" t="s">
+      <c r="M39" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="122" t="s">
+      <c r="N39" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="P39" s="122" t="s">
+      <c r="O39" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="Q39" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="R39" s="110"/>
-      <c r="S39" s="110"/>
-      <c r="T39" s="110"/>
-      <c r="U39" s="110"/>
-      <c r="V39" s="46" t="s">
+      <c r="Q39" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="126"/>
-      <c r="X39" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y39" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z39" s="132" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA39" s="132" t="s">
+      <c r="W39" s="56"/>
+      <c r="X39" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z39" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA39" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB39" s="132" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC39" s="132" t="s">
+      <c r="AB39" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC39" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD39" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="AD39" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE39" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF39" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG39" s="133" t="s">
-        <v>145</v>
+      <c r="AE39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF39" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG39" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -4318,52 +4316,52 @@
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="46" t="s">
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="W40" s="126"/>
-      <c r="X40" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y40" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z40" s="132" t="s">
+      <c r="W40" s="56"/>
+      <c r="X40" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z40" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AA40" s="132" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB40" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC40" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD40" s="132" t="s">
+      <c r="AA40" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC40" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD40" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE40" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF40" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="AE40" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF40" s="132" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG40" s="133" t="s">
+      <c r="AG40" s="46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -4374,43 +4372,43 @@
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="110"/>
-      <c r="V41" s="46" t="s">
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
+      <c r="V41" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="W41" s="126"/>
-      <c r="X41" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y41" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z41" s="132" t="s">
+      <c r="W41" s="56"/>
+      <c r="X41" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y41" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AA41" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB41" s="132" t="s">
+      <c r="AA41" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB41" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AC41" s="132" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD41" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE41" s="132" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF41" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG41" s="133" t="s">
-        <v>193</v>
+      <c r="AC41" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD41" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE41" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG41" s="46" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.3">
@@ -4430,43 +4428,43 @@
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="110"/>
-      <c r="S42" s="110"/>
-      <c r="T42" s="110"/>
-      <c r="U42" s="110"/>
-      <c r="V42" s="46" t="s">
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="W42" s="126"/>
-      <c r="X42" s="131" t="s">
+      <c r="W42" s="56"/>
+      <c r="X42" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y42" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="Y42" s="132" t="s">
+      <c r="Z42" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="Z42" s="132" t="s">
+      <c r="AA42" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="AA42" s="132" t="s">
+      <c r="AB42" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="AB42" s="132" t="s">
+      <c r="AC42" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="AC42" s="132" t="s">
+      <c r="AD42" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE42" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="AD42" s="132" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE42" s="132" t="s">
+      <c r="AF42" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="AF42" s="132" t="s">
+      <c r="AG42" s="46" t="s">
         <v>201</v>
-      </c>
-      <c r="AG42" s="133" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
@@ -4490,39 +4488,39 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="46" t="s">
+      <c r="V43" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="W43" s="126"/>
-      <c r="X43" s="131" t="s">
+      <c r="W43" s="56"/>
+      <c r="X43" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y43" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="Y43" s="132" t="s">
+      <c r="Z43" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="Z43" s="132" t="s">
+      <c r="AA43" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="AA43" s="132" t="s">
+      <c r="AB43" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC43" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AB43" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC43" s="132" t="s">
+      <c r="AD43" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AD43" s="132" t="s">
+      <c r="AE43" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AE43" s="132" t="s">
+      <c r="AF43" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="AF43" s="132" t="s">
+      <c r="AG43" s="46" t="s">
         <v>210</v>
-      </c>
-      <c r="AG43" s="133" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.3">
@@ -4546,39 +4544,39 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="46" t="s">
+      <c r="V44" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="W44" s="126"/>
-      <c r="X44" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y44" s="132" t="s">
+      <c r="W44" s="56"/>
+      <c r="X44" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y44" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z44" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA44" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB44" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="Z44" s="132" t="s">
+      <c r="AC44" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="AA44" s="132" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB44" s="132" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC44" s="132" t="s">
+      <c r="AD44" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="AD44" s="132" t="s">
+      <c r="AE44" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="AE44" s="132" t="s">
+      <c r="AF44" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="AF44" s="132" t="s">
+      <c r="AG44" s="46" t="s">
         <v>216</v>
-      </c>
-      <c r="AG44" s="133" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.3">
@@ -4602,39 +4600,39 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="46" t="s">
+      <c r="V45" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="W45" s="126"/>
-      <c r="X45" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y45" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z45" s="132" t="s">
+      <c r="W45" s="56"/>
+      <c r="X45" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y45" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z45" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA45" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="AA45" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB45" s="132" t="s">
+      <c r="AB45" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC45" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="AC45" s="132" t="s">
+      <c r="AD45" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="AD45" s="132" t="s">
+      <c r="AE45" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="AE45" s="132" t="s">
+      <c r="AF45" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="AF45" s="132" t="s">
+      <c r="AG45" s="46" t="s">
         <v>222</v>
-      </c>
-      <c r="AG45" s="133" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="46" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4658,39 +4656,39 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="W46" s="127"/>
-      <c r="X46" s="134" t="s">
+      <c r="V46" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="W46" s="51"/>
+      <c r="X46" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y46" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="Y46" s="135" t="s">
+      <c r="Z46" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA46" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="Z46" s="135" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA46" s="135" t="s">
+      <c r="AB46" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="AB46" s="135" t="s">
+      <c r="AC46" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="AC46" s="135" t="s">
+      <c r="AD46" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE46" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="AD46" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="AE46" s="135" t="s">
+      <c r="AF46" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="AF46" s="135" t="s">
+      <c r="AG46" s="49" t="s">
         <v>230</v>
-      </c>
-      <c r="AG46" s="136" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
@@ -4714,8 +4712,8 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="125"/>
-      <c r="W47" s="125"/>
+      <c r="V47" s="52"/>
+      <c r="W47" s="52"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
@@ -4733,6 +4731,58 @@
     <row r="52" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="R14:U23"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="E4:L5"/>
+    <mergeCell ref="E1:L2"/>
+    <mergeCell ref="F10:H13"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B14:E23"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="B32:E41"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="B28:E29"/>
     <mergeCell ref="V46:W46"/>
     <mergeCell ref="V47:W47"/>
     <mergeCell ref="F40:G40"/>
@@ -4747,60 +4797,8 @@
     <mergeCell ref="V37:W37"/>
     <mergeCell ref="V38:W38"/>
     <mergeCell ref="V39:W39"/>
-    <mergeCell ref="B14:E23"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="B32:E41"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="E4:L5"/>
-    <mergeCell ref="E1:L2"/>
-    <mergeCell ref="F10:H13"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="V33:W33"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="R14:U23"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RASTA/Riassunto risultati nostri-POI.xlsx
+++ b/RASTA/Riassunto risultati nostri-POI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\Desktop\PROJECTS\PROJECTS\RASTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA163A4-EDE3-49E6-BF5A-E90C8204B67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7CB6C7-ED23-4903-A466-5E581C93D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7830B794-500C-46F1-B31C-217C0727780C}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,38 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="234">
   <si>
     <t>Optimization</t>
   </si>
   <si>
-    <t>chiesa</t>
-  </si>
-  <si>
     <t>palazzo</t>
   </si>
   <si>
-    <t>santa</t>
-  </si>
-  <si>
     <t>centro</t>
   </si>
   <si>
     <t>storico</t>
   </si>
   <si>
-    <t>trova</t>
-  </si>
-  <si>
     <t>borgo</t>
   </si>
   <si>
     <t>museo</t>
   </si>
   <si>
-    <t>francesco</t>
-  </si>
-  <si>
     <t>castello</t>
   </si>
   <si>
@@ -138,9 +125,6 @@
     <t>edificio</t>
   </si>
   <si>
-    <t>boschi</t>
-  </si>
-  <si>
     <t>luogo</t>
   </si>
   <si>
@@ -168,12 +152,6 @@
     <t>(prima dell'ottimizzazione di alpha ed eta per ottenere la miglior topic diversity e la migliore topic coherence)</t>
   </si>
   <si>
-    <t>della</t>
-  </si>
-  <si>
-    <t>ospitata</t>
-  </si>
-  <si>
     <t>anno</t>
   </si>
   <si>
@@ -228,9 +206,6 @@
     <t>tre</t>
   </si>
   <si>
-    <t>aquila</t>
-  </si>
-  <si>
     <t>torre</t>
   </si>
   <si>
@@ -238,9 +213,6 @@
   </si>
   <si>
     <t>opera</t>
-  </si>
-  <si>
-    <t>ferroviario</t>
   </si>
   <si>
     <t>esterno</t>
@@ -284,309 +256,37 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Generato un </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vocabolario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> di </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>66951</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">parole -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>no rimozione di stopwords e lemmatizzazione</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Topic diversity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 0.81
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coherence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: -0.1869793960948603</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Topic Diversity   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                     Mean(model_runs): 0.985714
-num_iteration:  22
-activation: relu
-num_layers: 2
-num_neurons:  200
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>num_topics:  7</t>
-    </r>
-  </si>
-  <si>
     <t>territorio</t>
   </si>
   <si>
     <t>abitanti</t>
   </si>
   <si>
-    <t>comunale</t>
-  </si>
-  <si>
     <t>località</t>
   </si>
   <si>
-    <t>dal</t>
-  </si>
-  <si>
-    <t>servita</t>
-  </si>
-  <si>
-    <t>torna</t>
-  </si>
-  <si>
-    <t>contratto</t>
-  </si>
-  <si>
-    <t>interessata</t>
-  </si>
-  <si>
-    <t>attesa</t>
-  </si>
-  <si>
-    <t>geografiche</t>
-  </si>
-  <si>
-    <t>trenitalia</t>
-  </si>
-  <si>
-    <t>ferroviari</t>
-  </si>
-  <si>
-    <t>meteorologica</t>
-  </si>
-  <si>
     <t>cattolico</t>
   </si>
   <si>
     <t>descrizione</t>
   </si>
   <si>
-    <t>monofore</t>
-  </si>
-  <si>
-    <t>fortunato</t>
-  </si>
-  <si>
-    <t>spoletium</t>
-  </si>
-  <si>
-    <t>sorreggenti</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>pedale</t>
-  </si>
-  <si>
-    <t>illuminata</t>
-  </si>
-  <si>
     <t>riserva</t>
   </si>
   <si>
     <t>naturale</t>
   </si>
   <si>
-    <t>montuoso</t>
-  </si>
-  <si>
-    <t>habitat</t>
-  </si>
-  <si>
     <t>fauna</t>
   </si>
   <si>
-    <t>appenninico</t>
-  </si>
-  <si>
     <t>flora</t>
   </si>
   <si>
-    <t>orfento</t>
-  </si>
-  <si>
-    <t>specie</t>
-  </si>
-  <si>
-    <t>viabilità</t>
-  </si>
-  <si>
-    <t>vocazione</t>
-  </si>
-  <si>
-    <t>cartaginese</t>
-  </si>
-  <si>
-    <t>ceppo</t>
-  </si>
-  <si>
-    <t>aternum</t>
-  </si>
-  <si>
-    <t>peakbagger</t>
-  </si>
-  <si>
-    <t>galli</t>
-  </si>
-  <si>
-    <t>enzo</t>
-  </si>
-  <si>
-    <t>valorizzare</t>
-  </si>
-  <si>
-    <t>coprono</t>
-  </si>
-  <si>
-    <t>stele</t>
-  </si>
-  <si>
-    <t>collezioni</t>
-  </si>
-  <si>
-    <t>ridotte</t>
-  </si>
-  <si>
-    <t>beniculturali</t>
-  </si>
-  <si>
     <t>culturaitalia</t>
   </si>
   <si>
-    <t>rinnovamento</t>
-  </si>
-  <si>
     <t>museum</t>
-  </si>
-  <si>
-    <t>stanze</t>
-  </si>
-  <si>
-    <t>madonna</t>
   </si>
   <si>
     <t>cui</t>
@@ -1197,6 +897,327 @@
   </si>
   <si>
     <t>archeologico</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generato un </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vocabolario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> di </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">parole -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>no rimozione di stopwords e lemmatizzazione</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Topic diversity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 0.84
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coherence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: -0.18294099012095344</t>
+    </r>
+  </si>
+  <si>
+    <t>meteorologico</t>
+  </si>
+  <si>
+    <t>coordinare</t>
+  </si>
+  <si>
+    <t>trentennale</t>
+  </si>
+  <si>
+    <t>geografico</t>
+  </si>
+  <si>
+    <t>coordinata</t>
+  </si>
+  <si>
+    <t>caldo</t>
+  </si>
+  <si>
+    <t>climatologico</t>
+  </si>
+  <si>
+    <t>lacerazione</t>
+  </si>
+  <si>
+    <t>fabiano</t>
+  </si>
+  <si>
+    <t>integrazione</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>pinacoteca</t>
+  </si>
+  <si>
+    <t>transetto</t>
+  </si>
+  <si>
+    <t>abside</t>
+  </si>
+  <si>
+    <t>attribuire</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>dipinto</t>
+  </si>
+  <si>
+    <t>francescano</t>
+  </si>
+  <si>
+    <t>idrografico</t>
+  </si>
+  <si>
+    <t>gettare</t>
+  </si>
+  <si>
+    <t>cinghiale</t>
+  </si>
+  <si>
+    <t>cresta</t>
+  </si>
+  <si>
+    <t>cascata</t>
+  </si>
+  <si>
+    <t>profondità</t>
+  </si>
+  <si>
+    <t>escursionistico</t>
+  </si>
+  <si>
+    <t>fulvio</t>
+  </si>
+  <si>
+    <t>censimento</t>
+  </si>
+  <si>
+    <t>corgna</t>
+  </si>
+  <si>
+    <t>sagra</t>
+  </si>
+  <si>
+    <t>toscana</t>
+  </si>
+  <si>
+    <t>mastioo</t>
+  </si>
+  <si>
+    <t>ascanio</t>
+  </si>
+  <si>
+    <t>cortona</t>
+  </si>
+  <si>
+    <t>anagno</t>
+  </si>
+  <si>
+    <t>rimuovere</t>
+  </si>
+  <si>
+    <t>acerbo</t>
+  </si>
+  <si>
+    <t>lacuno</t>
+  </si>
+  <si>
+    <t>tessile</t>
+  </si>
+  <si>
+    <t>interpretabile</t>
+  </si>
+  <si>
+    <t>calce</t>
+  </si>
+  <si>
+    <t>alteravare</t>
+  </si>
+  <si>
+    <t>gigante</t>
+  </si>
+  <si>
+    <t>ciclopico</t>
+  </si>
+  <si>
+    <t>indirizzare</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>essere</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>più</t>
+  </si>
+  <si>
+    <t>avere</t>
+  </si>
+  <si>
+    <t>venire</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Topic Diversity   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                     
+num_iteration:  17
+activation: relu
+num_layers: 1
+num_neurons:  100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">num_topics:  7                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mean(model_runs): 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1827,7 +1848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1860,14 +1881,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1882,237 +1895,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2121,36 +1903,268 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2487,8 +2501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF356A9-D21B-48BE-87E1-17D4C4C30CD0}">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2500,99 +2514,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="70"/>
+      <c r="A1" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
     </row>
     <row r="2" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
+      <c r="A3" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="13"/>
       <c r="L3" s="14"/>
     </row>
     <row r="4" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="93"/>
+      <c r="A4" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="78" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="7" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
@@ -2600,55 +2614,55 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
+      <c r="B10" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="99"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="99"/>
+      <c r="B12" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="86"/>
     </row>
     <row r="13" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:33" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="6">
@@ -2681,448 +2695,448 @@
       <c r="Q14" s="6">
         <v>9</v>
       </c>
-      <c r="R14" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="114">
+      <c r="R14" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29">
         <v>0</v>
       </c>
-      <c r="Y14" s="114">
+      <c r="Y14" s="29">
         <v>1</v>
       </c>
-      <c r="Z14" s="114">
+      <c r="Z14" s="29">
         <v>2</v>
       </c>
-      <c r="AA14" s="114">
+      <c r="AA14" s="29">
         <v>3</v>
       </c>
-      <c r="AB14" s="114">
+      <c r="AB14" s="29">
         <v>4</v>
       </c>
-      <c r="AC14" s="114">
+      <c r="AC14" s="29">
         <v>5</v>
       </c>
-      <c r="AD14" s="114">
+      <c r="AD14" s="29">
         <v>6</v>
       </c>
-      <c r="AE14" s="114">
+      <c r="AE14" s="29">
         <v>7</v>
       </c>
-      <c r="AF14" s="114">
+      <c r="AF14" s="29">
         <v>8</v>
       </c>
-      <c r="AG14" s="115">
+      <c r="AG14" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="105"/>
-      <c r="H15" s="34" t="s">
+      <c r="B15" s="92"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="53"/>
+      <c r="X15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15" s="118"/>
-      <c r="X15" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y15" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z15" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB15" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC15" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE15" s="126" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF15" s="126" t="s">
+      <c r="AE15" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG15" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="AG15" s="126" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="120" t="s">
-        <v>15</v>
-      </c>
-      <c r="W16" s="121"/>
-      <c r="X16" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y16" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" s="126" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB16" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC16" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD16" s="126" t="s">
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AE16" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF16" s="126" t="s">
+      <c r="P16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AG16" s="126" t="s">
-        <v>70</v>
+      <c r="W16" s="48"/>
+      <c r="X16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF16" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="35" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N17" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="34" t="s">
+      <c r="O17" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="48"/>
+      <c r="X17" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB17" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF17" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="R17" s="116"/>
-      <c r="S17" s="116"/>
-      <c r="T17" s="116"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="120" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="121"/>
-      <c r="X17" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z17" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA17" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD17" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF17" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG17" s="126" t="s">
-        <v>28</v>
+      <c r="AG17" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="34" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="W18" s="121"/>
-      <c r="X18" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y18" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA18" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC18" s="126" t="s">
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="48"/>
+      <c r="X18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AD18" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF18" s="126" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG18" s="126" t="s">
-        <v>225</v>
+      <c r="Z18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF18" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG18" s="33" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="34" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="121"/>
-      <c r="X19" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y19" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB19" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC19" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD19" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE19" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF19" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="126" t="s">
-        <v>4</v>
+      <c r="Q19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="48"/>
+      <c r="X19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE19" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3133,53 +3147,53 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="W20" s="121"/>
-      <c r="X20" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y20" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z20" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA20" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB20" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC20" s="126" t="s">
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="W20" s="48"/>
+      <c r="X20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z20" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AD20" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF20" s="126" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG20" s="126" t="s">
-        <v>62</v>
+      <c r="AB20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD20" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF20" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3190,53 +3204,53 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="W21" s="121"/>
-      <c r="X21" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y21" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z21" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA21" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB21" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD21" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="126" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF21" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG21" s="126" t="s">
-        <v>224</v>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="48"/>
+      <c r="X21" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y21" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA21" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC21" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD21" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG21" s="33" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3247,53 +3261,53 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="116"/>
-      <c r="S22" s="116"/>
-      <c r="T22" s="116"/>
-      <c r="U22" s="116"/>
-      <c r="V22" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="121"/>
-      <c r="X22" s="126" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y22" s="126" t="s">
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="48"/>
+      <c r="X22" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Z22" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA22" s="126" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB22" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC22" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE22" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF22" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG22" s="126" t="s">
-        <v>220</v>
+      <c r="AF22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -3304,43 +3318,43 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="122"/>
-      <c r="V23" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="W23" s="121"/>
-      <c r="X23" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z23" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA23" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB23" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD23" s="126" t="s">
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="48"/>
+      <c r="X23" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE23" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG23" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="AE23" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF23" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG23" s="126" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
@@ -3360,43 +3374,43 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="119"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="119"/>
-      <c r="U24" s="119"/>
-      <c r="V24" s="120" t="s">
-        <v>24</v>
-      </c>
-      <c r="W24" s="121"/>
-      <c r="X24" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y24" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA24" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB24" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC24" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE24" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF24" s="126" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG24" s="126" t="s">
-        <v>227</v>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="48"/>
+      <c r="X24" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC24" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF24" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG24" s="33" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
@@ -3416,50 +3430,50 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="119"/>
-      <c r="U25" s="119"/>
-      <c r="V25" s="120" t="s">
-        <v>25</v>
-      </c>
-      <c r="W25" s="121"/>
-      <c r="X25" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y25" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z25" s="126" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA25" s="126" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB25" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC25" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD25" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE25" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF25" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG25" s="126" t="s">
-        <v>41</v>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="W25" s="48"/>
+      <c r="X25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y25" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA25" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG25" s="33" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3472,50 +3486,50 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="121"/>
-      <c r="X26" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z26" s="126" t="s">
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="48"/>
+      <c r="X26" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z26" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB26" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AA26" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB26" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC26" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD26" s="126" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE26" s="126" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF26" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG26" s="126" t="s">
-        <v>49</v>
+      <c r="AC26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE26" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG26" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:33" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3528,115 +3542,115 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="124"/>
-      <c r="X27" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z27" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA27" s="126" t="s">
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="W27" s="50"/>
+      <c r="X27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z27" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA27" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC27" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG27" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AB27" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC27" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD27" s="126" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE27" s="126" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF27" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG27" s="126" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
+      <c r="B28" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="9"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="125"/>
-      <c r="T28" s="125"/>
-      <c r="U28" s="125"/>
-      <c r="V28" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="W28" s="121"/>
-      <c r="X28" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y28" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA28" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB28" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC28" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD28" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE28" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF28" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG28" s="126" t="s">
-        <v>28</v>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="W28" s="48"/>
+      <c r="X28" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y28" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB28" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC28" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD28" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE28" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG28" s="33" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
       <c r="H29" s="10"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B30" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="B30" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="101"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
@@ -3649,23 +3663,23 @@
       <c r="AG30" s="15"/>
     </row>
     <row r="31" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="103"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
     </row>
     <row r="32" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="B32" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="12">
@@ -3698,14 +3712,14 @@
       <c r="Q32" s="12">
         <v>9</v>
       </c>
-      <c r="R32" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="44"/>
+      <c r="R32" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="S32" s="116"/>
+      <c r="T32" s="116"/>
+      <c r="U32" s="116"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="118"/>
       <c r="X32" s="16">
         <v>0</v>
       </c>
@@ -3738,558 +3752,558 @@
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54" t="s">
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" s="119" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" s="119" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="119" t="s">
+        <v>185</v>
+      </c>
+      <c r="N33" s="119" t="s">
+        <v>186</v>
+      </c>
+      <c r="O33" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="P33" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q33" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="R33" s="116"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="46"/>
+      <c r="X33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y33" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA33" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC33" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD33" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE33" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG33" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="100"/>
+      <c r="H34" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="I34" s="119" t="s">
+        <v>191</v>
+      </c>
+      <c r="J34" s="119" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="L34" s="119" t="s">
+        <v>194</v>
+      </c>
+      <c r="M34" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="P34" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q34" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="R34" s="116"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="W34" s="46"/>
+      <c r="X34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA34" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB34" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD34" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG34" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="100"/>
+      <c r="H35" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="119" t="s">
+        <v>176</v>
+      </c>
+      <c r="O35" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="R35" s="116"/>
+      <c r="S35" s="116"/>
+      <c r="T35" s="116"/>
+      <c r="U35" s="116"/>
+      <c r="V35" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" s="46"/>
+      <c r="X35" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE35" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF35" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG35" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="100"/>
+      <c r="H36" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="L36" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="119" t="s">
+        <v>200</v>
+      </c>
+      <c r="N36" s="119" t="s">
+        <v>201</v>
+      </c>
+      <c r="O36" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="P36" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q36" s="119" t="s">
+        <v>204</v>
+      </c>
+      <c r="R36" s="116"/>
+      <c r="S36" s="116"/>
+      <c r="T36" s="116"/>
+      <c r="U36" s="116"/>
+      <c r="V36" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="W36" s="46"/>
+      <c r="X36" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z36" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB36" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC36" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD36" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF36" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG36" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B37" s="98"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="19" t="s">
+      <c r="G37" s="100"/>
+      <c r="H37" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="M37" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" s="119" t="s">
+        <v>212</v>
+      </c>
+      <c r="P37" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q37" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="W37" s="46"/>
+      <c r="X37" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD37" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE37" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF37" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG37" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="100"/>
+      <c r="H38" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="119" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="M38" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="N38" s="119" t="s">
+        <v>221</v>
+      </c>
+      <c r="O38" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="P38" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="R38" s="116"/>
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="W38" s="46"/>
+      <c r="X38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z38" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA38" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB38" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD38" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF38" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG38" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="100"/>
+      <c r="H39" s="119" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="119" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" s="119" t="s">
+        <v>226</v>
+      </c>
+      <c r="K39" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="N39" s="119" t="s">
+        <v>229</v>
+      </c>
+      <c r="O39" s="119" t="s">
+        <v>230</v>
+      </c>
+      <c r="P39" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q39" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="R39" s="116"/>
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="W39" s="46"/>
+      <c r="X39" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y39" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z39" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA39" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M33" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="N33" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="W33" s="42"/>
-      <c r="X33" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y33" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z33" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA33" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB33" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC33" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD33" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE33" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF33" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG33" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="O34" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q34" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="W34" s="42"/>
-      <c r="X34" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y34" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z34" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA34" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB34" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC34" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD34" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE34" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF34" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG34" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="W35" s="42"/>
-      <c r="X35" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y35" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD35" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE35" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF35" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG35" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="21" t="s">
+      <c r="AC39" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD39" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF39" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P36" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q36" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="W36" s="42"/>
-      <c r="X36" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y36" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z36" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA36" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC36" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD36" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF36" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG36" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="55"/>
-      <c r="H37" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O37" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="W37" s="42"/>
-      <c r="X37" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y37" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z37" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA37" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC37" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD37" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF37" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG37" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="O38" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="P38" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q38" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W38" s="42"/>
-      <c r="X38" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y38" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z38" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA38" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB38" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC38" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD38" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE38" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF38" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG38" s="30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="L39" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q39" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="W39" s="42"/>
-      <c r="X39" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y39" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA39" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC39" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD39" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF39" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG39" s="30" t="s">
-        <v>128</v>
+      <c r="AG39" s="22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
@@ -4300,52 +4314,52 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="W40" s="42"/>
-      <c r="X40" s="29" t="s">
-        <v>49</v>
+      <c r="R40" s="116"/>
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="W40" s="46"/>
+      <c r="X40" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="Y40" s="17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Z40" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA40" s="17" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AC40" s="17" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="AE40" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF40" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG40" s="30" t="s">
-        <v>4</v>
+        <v>124</v>
+      </c>
+      <c r="AG40" s="22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -4356,43 +4370,43 @@
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="W41" s="42"/>
-      <c r="X41" s="29" t="s">
-        <v>49</v>
+      <c r="R41" s="116"/>
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="W41" s="46"/>
+      <c r="X41" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="Y41" s="17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="Z41" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="17" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="AB41" s="17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="AE41" s="17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AF41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG41" s="30" t="s">
-        <v>176</v>
+        <v>65</v>
+      </c>
+      <c r="AG41" s="22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.3">
@@ -4412,43 +4426,43 @@
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="W42" s="42"/>
-      <c r="X42" s="29" t="s">
-        <v>177</v>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="46"/>
+      <c r="X42" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="Y42" s="17" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="Z42" s="17" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="AA42" s="17" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="AB42" s="17" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AC42" s="17" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="AD42" s="17" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="AE42" s="17" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="AF42" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG42" s="30" t="s">
-        <v>185</v>
+        <v>132</v>
+      </c>
+      <c r="AG42" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
@@ -4472,39 +4486,39 @@
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
-      <c r="V43" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="W43" s="42"/>
-      <c r="X43" s="29" t="s">
-        <v>186</v>
+      <c r="V43" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" s="46"/>
+      <c r="X43" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="Y43" s="17" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="Z43" s="17" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="AA43" s="17" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="AB43" s="17" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="AC43" s="17" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="AD43" s="17" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="AE43" s="17" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="AF43" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG43" s="30" t="s">
-        <v>194</v>
+        <v>141</v>
+      </c>
+      <c r="AG43" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.3">
@@ -4528,39 +4542,39 @@
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
-      <c r="V44" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="W44" s="42"/>
-      <c r="X44" s="29" t="s">
-        <v>92</v>
+      <c r="V44" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="W44" s="46"/>
+      <c r="X44" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="Y44" s="17" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="Z44" s="17" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="AA44" s="17" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AB44" s="17" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="AC44" s="17" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="AD44" s="17" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="AE44" s="17" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="AF44" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG44" s="30" t="s">
-        <v>200</v>
+        <v>147</v>
+      </c>
+      <c r="AG44" s="22" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.3">
@@ -4584,39 +4598,39 @@
       <c r="S45" s="17"/>
       <c r="T45" s="17"/>
       <c r="U45" s="17"/>
-      <c r="V45" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="W45" s="42"/>
-      <c r="X45" s="29" t="s">
-        <v>92</v>
+      <c r="V45" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="W45" s="46"/>
+      <c r="X45" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="Y45" s="17" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="Z45" s="17" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="AA45" s="17" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="AB45" s="17" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="AE45" s="17" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="AF45" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG45" s="30" t="s">
-        <v>206</v>
+        <v>153</v>
+      </c>
+      <c r="AG45" s="22" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4640,39 +4654,39 @@
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y46" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z46" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA46" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB46" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC46" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD46" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE46" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF46" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG46" s="33" t="s">
-        <v>214</v>
+      <c r="V46" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="W46" s="113"/>
+      <c r="X46" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y46" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z46" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA46" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB46" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC46" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD46" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE46" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF46" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG46" s="25" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
@@ -4696,8 +4710,8 @@
       <c r="S47" s="17"/>
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
+      <c r="V47" s="114"/>
+      <c r="W47" s="114"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
       <c r="Z47" s="17"/>
@@ -4805,58 +4819,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="R14:U23"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="E4:L5"/>
-    <mergeCell ref="E1:L2"/>
-    <mergeCell ref="F10:H13"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B14:E23"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="B32:E41"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="B28:E29"/>
     <mergeCell ref="V46:W46"/>
     <mergeCell ref="V47:W47"/>
     <mergeCell ref="F40:G40"/>
@@ -4873,6 +4835,58 @@
     <mergeCell ref="V39:W39"/>
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="V33:W33"/>
+    <mergeCell ref="B14:E23"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="B32:E41"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="E4:L5"/>
+    <mergeCell ref="E1:L2"/>
+    <mergeCell ref="F10:H13"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="R14:U23"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
